--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2030.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2030.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.154304884256074</v>
+        <v>1.183885216712952</v>
       </c>
       <c r="B1">
-        <v>2.354255314655393</v>
+        <v>2.356223344802856</v>
       </c>
       <c r="C1">
-        <v>6.673191361932908</v>
+        <v>6.430662631988525</v>
       </c>
       <c r="D1">
-        <v>2.367194291688984</v>
+        <v>2.051105976104736</v>
       </c>
       <c r="E1">
-        <v>1.22267360385418</v>
+        <v>1.193235278129578</v>
       </c>
     </row>
   </sheetData>
